--- a/MNE-portal-app/reports/SG-MNE1_FY2016.xlsx
+++ b/MNE-portal-app/reports/SG-MNE1_FY2016.xlsx
@@ -673,7 +673,7 @@
     <t>The Revenue figures exclude an extraordinary gain from the sales of two landed properties in Australia and New Zealands.</t>
   </si>
   <si>
-    <t>111XXXXXXK</t>
+    <t>113XXXXXXK</t>
   </si>
 </sst>
 </file>

--- a/MNE-portal-app/reports/SG-MNE1_FY2016.xlsx
+++ b/MNE-portal-app/reports/SG-MNE1_FY2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>Tax Reference Number of Reporting Entity: *</t>
   </si>
@@ -660,16 +660,19 @@
     <t>The Revenue figures exclude an extraordinary gain from the sales of two landed properties in Australia and New Zealands.</t>
   </si>
   <si>
+    <t>2016-12-12T08:35:09</t>
+  </si>
+  <si>
+    <t>SG-MNE1(113888888K)</t>
+  </si>
+  <si>
+    <t>113888888K.2016121208305501</t>
+  </si>
+  <si>
     <t>113888888K</t>
   </si>
   <si>
-    <t>2016-12-12T08:35:09</t>
-  </si>
-  <si>
-    <t>113888888K.2016121208305501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting officer: Ms Christine, 61234567, A@xyz.com.
+    <t xml:space="preserve">Reporting officer: Ms Amy, 61234567, A@xyz.com.
 IT officer: Mr B, 61123456, B@xyz.com </t>
   </si>
 </sst>
@@ -1353,6 +1356,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1362,14 +1434,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1380,119 +1491,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="20"/>
@@ -2054,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="22"/>
@@ -2169,10 +2172,10 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2242,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="18"/>
@@ -2349,11 +2352,11 @@
       <c r="A16" s="46"/>
       <c r="B16" s="76"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -2389,11 +2392,11 @@
         <v>2</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2426,14 +2429,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -2469,11 +2472,11 @@
         <v>2</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -2623,11 +2626,11 @@
         <v>24</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2663,11 +2666,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -2703,11 +2706,11 @@
         <v>27</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -2781,11 +2784,11 @@
         <v>30</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -2821,11 +2824,11 @@
         <v>32</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -2861,11 +2864,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -2901,11 +2904,11 @@
         <v>10</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -2977,11 +2980,11 @@
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -3017,11 +3020,11 @@
         <v>523110</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -3057,11 +3060,11 @@
         <v>39</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -3133,11 +3136,11 @@
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -3173,11 +3176,11 @@
         <v>43</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -3213,12 +3216,12 @@
         <v>45</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -3253,12 +3256,12 @@
         <v>47</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
@@ -3291,12 +3294,12 @@
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -3396,23 +3399,23 @@
       <c r="AH42" s="19"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="93"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="116"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3476,10 +3479,10 @@
       <c r="B45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -3556,9 +3559,9 @@
       <c r="B47" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3630,11 +3633,11 @@
       <c r="B49" s="53"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="96"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="109"/>
       <c r="H49" s="10"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4110,42 +4113,42 @@
       <c r="AH57" s="19"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92"/>
-      <c r="T58" s="92"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
-      <c r="X58" s="92"/>
-      <c r="Y58" s="92"/>
-      <c r="Z58" s="92"/>
-      <c r="AA58" s="92"/>
-      <c r="AB58" s="92"/>
-      <c r="AC58" s="92"/>
-      <c r="AD58" s="92"/>
-      <c r="AE58" s="92"/>
-      <c r="AF58" s="92"/>
-      <c r="AG58" s="92"/>
-      <c r="AH58" s="93"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="115"/>
+      <c r="U58" s="115"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
+      <c r="X58" s="115"/>
+      <c r="Y58" s="115"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="115"/>
+      <c r="AB58" s="115"/>
+      <c r="AC58" s="115"/>
+      <c r="AD58" s="115"/>
+      <c r="AE58" s="115"/>
+      <c r="AF58" s="115"/>
+      <c r="AG58" s="115"/>
+      <c r="AH58" s="116"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="52" t="s">
@@ -4235,84 +4238,84 @@
       <c r="E61" s="86"/>
       <c r="F61" s="86"/>
       <c r="G61" s="86"/>
-      <c r="H61" s="109" t="s">
+      <c r="H61" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="117"/>
+      <c r="O61" s="117"/>
+      <c r="P61" s="117"/>
+      <c r="Q61" s="117"/>
+      <c r="R61" s="117"/>
+      <c r="S61" s="117"/>
       <c r="T61" s="87"/>
-      <c r="U61" s="116" t="s">
+      <c r="U61" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="V61" s="117"/>
-      <c r="W61" s="117"/>
-      <c r="X61" s="117"/>
-      <c r="Y61" s="117"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="117"/>
-      <c r="AB61" s="117"/>
-      <c r="AC61" s="117"/>
-      <c r="AD61" s="117"/>
-      <c r="AE61" s="117"/>
-      <c r="AF61" s="117"/>
-      <c r="AG61" s="118"/>
+      <c r="V61" s="125"/>
+      <c r="W61" s="125"/>
+      <c r="X61" s="125"/>
+      <c r="Y61" s="125"/>
+      <c r="Z61" s="125"/>
+      <c r="AA61" s="125"/>
+      <c r="AB61" s="125"/>
+      <c r="AC61" s="125"/>
+      <c r="AD61" s="125"/>
+      <c r="AE61" s="125"/>
+      <c r="AF61" s="125"/>
+      <c r="AG61" s="126"/>
       <c r="AH61" s="88"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62" s="82"/>
       <c r="B62" s="82"/>
-      <c r="C62" s="110" t="s">
+      <c r="C62" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="110"/>
-      <c r="E62" s="97" t="s">
+      <c r="D62" s="118"/>
+      <c r="E62" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="111" t="s">
+      <c r="F62" s="134"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="113" t="s">
+      <c r="I62" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="111" t="s">
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="S62" s="111" t="s">
+      <c r="S62" s="119" t="s">
         <v>26</v>
       </c>
       <c r="T62" s="82"/>
-      <c r="U62" s="119"/>
-      <c r="V62" s="120"/>
-      <c r="W62" s="120"/>
-      <c r="X62" s="120"/>
-      <c r="Y62" s="120"/>
-      <c r="Z62" s="120"/>
-      <c r="AA62" s="120"/>
-      <c r="AB62" s="120"/>
-      <c r="AC62" s="120"/>
-      <c r="AD62" s="120"/>
-      <c r="AE62" s="120"/>
-      <c r="AF62" s="120"/>
-      <c r="AG62" s="121"/>
+      <c r="U62" s="127"/>
+      <c r="V62" s="128"/>
+      <c r="W62" s="128"/>
+      <c r="X62" s="128"/>
+      <c r="Y62" s="128"/>
+      <c r="Z62" s="128"/>
+      <c r="AA62" s="128"/>
+      <c r="AB62" s="128"/>
+      <c r="AC62" s="128"/>
+      <c r="AD62" s="128"/>
+      <c r="AE62" s="128"/>
+      <c r="AF62" s="128"/>
+      <c r="AG62" s="129"/>
       <c r="AH62" s="89"/>
     </row>
     <row r="63" spans="1:34" ht="164.65" x14ac:dyDescent="0.45">
@@ -4337,7 +4340,7 @@
       <c r="G63" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="H63" s="112"/>
+      <c r="H63" s="120"/>
       <c r="I63" s="84" t="s">
         <v>29</v>
       </c>
@@ -4365,8 +4368,8 @@
       <c r="Q63" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="R63" s="112"/>
-      <c r="S63" s="112"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
       <c r="T63" s="68" t="s">
         <v>90</v>
       </c>
@@ -4458,21 +4461,21 @@
       <c r="T64" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="U64" s="94" t="s">
+      <c r="U64" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="V64" s="95"/>
-      <c r="W64" s="95"/>
-      <c r="X64" s="95"/>
-      <c r="Y64" s="95"/>
-      <c r="Z64" s="95"/>
-      <c r="AA64" s="95"/>
-      <c r="AB64" s="95"/>
-      <c r="AC64" s="95"/>
-      <c r="AD64" s="95"/>
-      <c r="AE64" s="95"/>
-      <c r="AF64" s="95"/>
-      <c r="AG64" s="96"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="108"/>
+      <c r="X64" s="108"/>
+      <c r="Y64" s="108"/>
+      <c r="Z64" s="108"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="108"/>
+      <c r="AC64" s="108"/>
+      <c r="AD64" s="108"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="108"/>
+      <c r="AG64" s="109"/>
       <c r="AH64" s="63"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.45">
@@ -4518,21 +4521,21 @@
         <v>27</v>
       </c>
       <c r="T65" s="81"/>
-      <c r="U65" s="94" t="s">
+      <c r="U65" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="V65" s="95"/>
-      <c r="W65" s="95"/>
-      <c r="X65" s="95"/>
-      <c r="Y65" s="95"/>
-      <c r="Z65" s="95"/>
-      <c r="AA65" s="95"/>
-      <c r="AB65" s="95"/>
-      <c r="AC65" s="95"/>
-      <c r="AD65" s="95"/>
-      <c r="AE65" s="95"/>
-      <c r="AF65" s="95"/>
-      <c r="AG65" s="96"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="108"/>
+      <c r="X65" s="108"/>
+      <c r="Y65" s="108"/>
+      <c r="Z65" s="108"/>
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="108"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="108"/>
+      <c r="AG65" s="109"/>
       <c r="AH65" s="63"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.45">
@@ -4578,21 +4581,21 @@
         <v>130</v>
       </c>
       <c r="T66" s="81"/>
-      <c r="U66" s="94" t="s">
+      <c r="U66" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="V66" s="95"/>
-      <c r="W66" s="95"/>
-      <c r="X66" s="95"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="95"/>
-      <c r="AA66" s="95"/>
-      <c r="AB66" s="95"/>
-      <c r="AC66" s="95"/>
-      <c r="AD66" s="95"/>
-      <c r="AE66" s="95"/>
-      <c r="AF66" s="95"/>
-      <c r="AG66" s="96"/>
+      <c r="V66" s="108"/>
+      <c r="W66" s="108"/>
+      <c r="X66" s="108"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="108"/>
+      <c r="AA66" s="108"/>
+      <c r="AB66" s="108"/>
+      <c r="AC66" s="108"/>
+      <c r="AD66" s="108"/>
+      <c r="AE66" s="108"/>
+      <c r="AF66" s="108"/>
+      <c r="AG66" s="109"/>
       <c r="AH66" s="63"/>
     </row>
     <row r="67" spans="1:34" ht="46.5" x14ac:dyDescent="0.45">
@@ -4646,21 +4649,21 @@
         <v>112</v>
       </c>
       <c r="T67" s="81"/>
-      <c r="U67" s="94" t="s">
+      <c r="U67" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="V67" s="95"/>
-      <c r="W67" s="95"/>
-      <c r="X67" s="95"/>
-      <c r="Y67" s="95"/>
-      <c r="Z67" s="95"/>
-      <c r="AA67" s="95"/>
-      <c r="AB67" s="95"/>
-      <c r="AC67" s="95"/>
-      <c r="AD67" s="95"/>
-      <c r="AE67" s="95"/>
-      <c r="AF67" s="95"/>
-      <c r="AG67" s="96"/>
+      <c r="V67" s="108"/>
+      <c r="W67" s="108"/>
+      <c r="X67" s="108"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="108"/>
+      <c r="AA67" s="108"/>
+      <c r="AB67" s="108"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="108"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="108"/>
+      <c r="AG67" s="109"/>
       <c r="AH67" s="63" t="s">
         <v>142</v>
       </c>
@@ -4704,21 +4707,21 @@
         <v>27</v>
       </c>
       <c r="T68" s="81"/>
-      <c r="U68" s="94" t="s">
+      <c r="U68" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="V68" s="95"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="95"/>
-      <c r="Y68" s="95"/>
-      <c r="Z68" s="95"/>
-      <c r="AA68" s="95"/>
-      <c r="AB68" s="95"/>
-      <c r="AC68" s="95"/>
-      <c r="AD68" s="95"/>
-      <c r="AE68" s="95"/>
-      <c r="AF68" s="95"/>
-      <c r="AG68" s="96"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="108"/>
+      <c r="X68" s="108"/>
+      <c r="Y68" s="108"/>
+      <c r="Z68" s="108"/>
+      <c r="AA68" s="108"/>
+      <c r="AB68" s="108"/>
+      <c r="AC68" s="108"/>
+      <c r="AD68" s="108"/>
+      <c r="AE68" s="108"/>
+      <c r="AF68" s="108"/>
+      <c r="AG68" s="109"/>
       <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.45">
@@ -4756,21 +4759,21 @@
         <v>130</v>
       </c>
       <c r="T69" s="81"/>
-      <c r="U69" s="94" t="s">
+      <c r="U69" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="V69" s="95"/>
-      <c r="W69" s="95"/>
-      <c r="X69" s="95"/>
-      <c r="Y69" s="95"/>
-      <c r="Z69" s="95"/>
-      <c r="AA69" s="95"/>
-      <c r="AB69" s="95"/>
-      <c r="AC69" s="95"/>
-      <c r="AD69" s="95"/>
-      <c r="AE69" s="95"/>
-      <c r="AF69" s="95"/>
-      <c r="AG69" s="96"/>
+      <c r="V69" s="108"/>
+      <c r="W69" s="108"/>
+      <c r="X69" s="108"/>
+      <c r="Y69" s="108"/>
+      <c r="Z69" s="108"/>
+      <c r="AA69" s="108"/>
+      <c r="AB69" s="108"/>
+      <c r="AC69" s="108"/>
+      <c r="AD69" s="108"/>
+      <c r="AE69" s="108"/>
+      <c r="AF69" s="108"/>
+      <c r="AG69" s="109"/>
       <c r="AH69" s="63"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.45">
@@ -4810,21 +4813,21 @@
       <c r="T70" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="U70" s="94" t="s">
+      <c r="U70" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="V70" s="95"/>
-      <c r="W70" s="95"/>
-      <c r="X70" s="95"/>
-      <c r="Y70" s="95"/>
-      <c r="Z70" s="95"/>
-      <c r="AA70" s="95"/>
-      <c r="AB70" s="95"/>
-      <c r="AC70" s="95"/>
-      <c r="AD70" s="95"/>
-      <c r="AE70" s="95"/>
-      <c r="AF70" s="95"/>
-      <c r="AG70" s="96"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="108"/>
+      <c r="X70" s="108"/>
+      <c r="Y70" s="108"/>
+      <c r="Z70" s="108"/>
+      <c r="AA70" s="108"/>
+      <c r="AB70" s="108"/>
+      <c r="AC70" s="108"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="108"/>
+      <c r="AF70" s="108"/>
+      <c r="AG70" s="109"/>
       <c r="AH70" s="63" t="s">
         <v>157</v>
       </c>
@@ -4866,21 +4869,21 @@
         <v>27</v>
       </c>
       <c r="T71" s="81"/>
-      <c r="U71" s="94" t="s">
+      <c r="U71" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="V71" s="95"/>
-      <c r="W71" s="95"/>
-      <c r="X71" s="95"/>
-      <c r="Y71" s="95"/>
-      <c r="Z71" s="95"/>
-      <c r="AA71" s="95"/>
-      <c r="AB71" s="95"/>
-      <c r="AC71" s="95"/>
-      <c r="AD71" s="95"/>
-      <c r="AE71" s="95"/>
-      <c r="AF71" s="95"/>
-      <c r="AG71" s="96"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="108"/>
+      <c r="X71" s="108"/>
+      <c r="Y71" s="108"/>
+      <c r="Z71" s="108"/>
+      <c r="AA71" s="108"/>
+      <c r="AB71" s="108"/>
+      <c r="AC71" s="108"/>
+      <c r="AD71" s="108"/>
+      <c r="AE71" s="108"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="109"/>
       <c r="AH71" s="63"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.45">
@@ -4920,21 +4923,21 @@
         <v>27</v>
       </c>
       <c r="T72" s="81"/>
-      <c r="U72" s="94" t="s">
+      <c r="U72" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="V72" s="95"/>
-      <c r="W72" s="95"/>
-      <c r="X72" s="95"/>
-      <c r="Y72" s="95"/>
-      <c r="Z72" s="95"/>
-      <c r="AA72" s="95"/>
-      <c r="AB72" s="95"/>
-      <c r="AC72" s="95"/>
-      <c r="AD72" s="95"/>
-      <c r="AE72" s="95"/>
-      <c r="AF72" s="95"/>
-      <c r="AG72" s="96"/>
+      <c r="V72" s="108"/>
+      <c r="W72" s="108"/>
+      <c r="X72" s="108"/>
+      <c r="Y72" s="108"/>
+      <c r="Z72" s="108"/>
+      <c r="AA72" s="108"/>
+      <c r="AB72" s="108"/>
+      <c r="AC72" s="108"/>
+      <c r="AD72" s="108"/>
+      <c r="AE72" s="108"/>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="109"/>
       <c r="AH72" s="63"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.45">
@@ -4974,21 +4977,21 @@
         <v>130</v>
       </c>
       <c r="T73" s="81"/>
-      <c r="U73" s="94" t="s">
+      <c r="U73" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="V73" s="95"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="95"/>
-      <c r="AA73" s="95"/>
-      <c r="AB73" s="95"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="95"/>
-      <c r="AF73" s="95"/>
-      <c r="AG73" s="96"/>
+      <c r="V73" s="108"/>
+      <c r="W73" s="108"/>
+      <c r="X73" s="108"/>
+      <c r="Y73" s="108"/>
+      <c r="Z73" s="108"/>
+      <c r="AA73" s="108"/>
+      <c r="AB73" s="108"/>
+      <c r="AC73" s="108"/>
+      <c r="AD73" s="108"/>
+      <c r="AE73" s="108"/>
+      <c r="AF73" s="108"/>
+      <c r="AG73" s="109"/>
       <c r="AH73" s="63"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.45">
@@ -5028,21 +5031,21 @@
         <v>112</v>
       </c>
       <c r="T74" s="81"/>
-      <c r="U74" s="94" t="s">
+      <c r="U74" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="V74" s="95"/>
-      <c r="W74" s="95"/>
-      <c r="X74" s="95"/>
-      <c r="Y74" s="95"/>
-      <c r="Z74" s="95"/>
-      <c r="AA74" s="95"/>
-      <c r="AB74" s="95"/>
-      <c r="AC74" s="95"/>
-      <c r="AD74" s="95"/>
-      <c r="AE74" s="95"/>
-      <c r="AF74" s="95"/>
-      <c r="AG74" s="96"/>
+      <c r="V74" s="108"/>
+      <c r="W74" s="108"/>
+      <c r="X74" s="108"/>
+      <c r="Y74" s="108"/>
+      <c r="Z74" s="108"/>
+      <c r="AA74" s="108"/>
+      <c r="AB74" s="108"/>
+      <c r="AC74" s="108"/>
+      <c r="AD74" s="108"/>
+      <c r="AE74" s="108"/>
+      <c r="AF74" s="108"/>
+      <c r="AG74" s="109"/>
       <c r="AH74" s="63"/>
     </row>
     <row r="75" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5154,19 +5157,19 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="123"/>
-      <c r="J78" s="123"/>
-      <c r="K78" s="124"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="106"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -5232,10 +5235,10 @@
       <c r="B81" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="8"/>
@@ -5296,10 +5299,10 @@
         <v>179</v>
       </c>
       <c r="B85" s="35"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="8"/>
@@ -5320,45 +5323,45 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="125" t="s">
+      <c r="A87" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="126"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="127"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="93"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="128"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="130"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="96"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" s="131"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
-      <c r="G89" s="132"/>
-      <c r="H89" s="132"/>
-      <c r="I89" s="132"/>
-      <c r="J89" s="132"/>
-      <c r="K89" s="133"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="99"/>
     </row>
     <row r="90" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="67"/>
@@ -5400,19 +5403,19 @@
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93" s="122" t="s">
+      <c r="A93" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="123"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="124"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="106"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="61" t="s">
@@ -5455,10 +5458,10 @@
       <c r="B96" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="134"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="135"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="8"/>
@@ -5521,10 +5524,10 @@
         <v>179</v>
       </c>
       <c r="B100" s="35"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="136"/>
-      <c r="E100" s="136"/>
-      <c r="F100" s="136"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="8"/>
@@ -5545,45 +5548,45 @@
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102" s="125" t="s">
+      <c r="A102" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="B102" s="126"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="126"/>
-      <c r="H102" s="126"/>
-      <c r="I102" s="126"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="127"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="93"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103" s="128"/>
-      <c r="B103" s="129"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
-      <c r="F103" s="129"/>
-      <c r="G103" s="129"/>
-      <c r="H103" s="129"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="130"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
+      <c r="I103" s="95"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="96"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104" s="131"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="132"/>
-      <c r="E104" s="132"/>
-      <c r="F104" s="132"/>
-      <c r="G104" s="132"/>
-      <c r="H104" s="132"/>
-      <c r="I104" s="132"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="133"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="98"/>
+      <c r="J104" s="98"/>
+      <c r="K104" s="99"/>
     </row>
     <row r="105" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="67"/>
@@ -5625,19 +5628,19 @@
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108" s="123" t="s">
+      <c r="A108" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="123"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
-      <c r="G108" s="123"/>
-      <c r="H108" s="123"/>
-      <c r="I108" s="123"/>
-      <c r="J108" s="123"/>
-      <c r="K108" s="124"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="106"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="61" t="s">
@@ -5680,10 +5683,10 @@
       <c r="B111" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="134"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="8"/>
@@ -5746,10 +5749,10 @@
         <v>179</v>
       </c>
       <c r="B115" s="35"/>
-      <c r="C115" s="137"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="136"/>
-      <c r="F115" s="136"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="102"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="8"/>
@@ -5770,45 +5773,45 @@
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117" s="125" t="s">
+      <c r="A117" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="126"/>
-      <c r="E117" s="126"/>
-      <c r="F117" s="126"/>
-      <c r="G117" s="126"/>
-      <c r="H117" s="126"/>
-      <c r="I117" s="126"/>
-      <c r="J117" s="126"/>
-      <c r="K117" s="127"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="92"/>
+      <c r="H117" s="92"/>
+      <c r="I117" s="92"/>
+      <c r="J117" s="92"/>
+      <c r="K117" s="93"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118" s="128"/>
-      <c r="B118" s="129"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="129"/>
-      <c r="G118" s="129"/>
-      <c r="H118" s="129"/>
-      <c r="I118" s="129"/>
-      <c r="J118" s="129"/>
-      <c r="K118" s="130"/>
+      <c r="A118" s="94"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="95"/>
+      <c r="H118" s="95"/>
+      <c r="I118" s="95"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="96"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119" s="131"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="132"/>
-      <c r="D119" s="132"/>
-      <c r="E119" s="132"/>
-      <c r="F119" s="132"/>
-      <c r="G119" s="132"/>
-      <c r="H119" s="132"/>
-      <c r="I119" s="132"/>
-      <c r="J119" s="132"/>
-      <c r="K119" s="133"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="99"/>
     </row>
     <row r="120" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="42"/>
@@ -5825,24 +5828,32 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A117:K119"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A102:K104"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="U73:AG73"/>
-    <mergeCell ref="U74:AG74"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A87:K89"/>
-    <mergeCell ref="U68:AG68"/>
-    <mergeCell ref="U69:AG69"/>
-    <mergeCell ref="U71:AG71"/>
-    <mergeCell ref="U72:AG72"/>
-    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D39:I39"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C47:E47"/>
@@ -5859,32 +5870,24 @@
     <mergeCell ref="U65:AG65"/>
     <mergeCell ref="U66:AG66"/>
     <mergeCell ref="U67:AG67"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="U68:AG68"/>
+    <mergeCell ref="U69:AG69"/>
+    <mergeCell ref="U71:AG71"/>
+    <mergeCell ref="U72:AG72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A102:K104"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="U73:AG73"/>
+    <mergeCell ref="U74:AG74"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A87:K89"/>
+    <mergeCell ref="A117:K119"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C115:F115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
